--- a/data/countries/bonaire_st_eustatius_saba.xlsx
+++ b/data/countries/bonaire_st_eustatius_saba.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/home/BlenmanSandbox-CC1407-MEDCCC/AP 2023 Spr/data/countries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreipascu/Documents/Yale University/Years/Senior/Spring/CSEC 491/local/data/countries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0F6A07-70D3-1C49-9DB3-7A61278F218D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD94DD1-5797-9A45-94F7-18ED230054CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32620" yWindow="880" windowWidth="18000" windowHeight="26400" activeTab="1" xr2:uid="{A00892F2-77B1-0143-89C4-5296CC556B66}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" xr2:uid="{A00892F2-77B1-0143-89C4-5296CC556B66}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>General</t>
   </si>
@@ -85,9 +93,6 @@
     <t>covid19_deaths</t>
   </si>
   <si>
-    <t>2020-2021 (yearly)</t>
-  </si>
-  <si>
     <t>covid19_mortality</t>
   </si>
   <si>
@@ -128,6 +133,9 @@
   </si>
   <si>
     <t>https://www.statista.com/statistics/977010/inbound-tourism-by-air-to-saba</t>
+  </si>
+  <si>
+    <t>2020-2022 (yearly)</t>
   </si>
 </sst>
 </file>
@@ -573,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74CC475-90E8-AE41-9E12-080CDE43B3C3}">
   <dimension ref="B1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -593,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -602,7 +610,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -611,7 +619,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="4">
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -626,7 +634,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -634,7 +642,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -642,7 +650,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -677,7 +685,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
@@ -685,7 +693,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -693,7 +701,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -701,7 +709,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
@@ -709,7 +717,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -717,18 +725,18 @@
         <v>13</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C17" s="5"/>
       <c r="E17" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E18" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
@@ -757,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D00AED-5EBD-974C-A23B-D47D16AC0D47}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -771,7 +779,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>17</v>
@@ -780,7 +788,7 @@
         <v>18</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -788,7 +796,7 @@
         <v>2010</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="13">
         <v>0</v>
@@ -805,7 +813,7 @@
         <v>2011</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="13">
         <v>0</v>
@@ -987,6 +995,24 @@
       <c r="E13">
         <f>D13/C13</f>
         <v>6.2305295950155761E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>8310</v>
+      </c>
+      <c r="D14">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <f>D14/C14</f>
+        <v>1.9253910950661852E-3</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
